--- a/data/data_profesores_sexo.xlsx
+++ b/data/data_profesores_sexo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/df_diazc_uniandes_edu_co/Documents/Semestre 7/Introducción a la Ciencia de Datos/Taller 3/IntroCienciaDatos3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/df_diazc_uniandes_edu_co/Documents/Semestre 7/Introducción a la Ciencia de Datos/Taller 3/IntroCienciaDatos3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D4518A-256A-BF4C-BC03-8C8163D4D0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{E3D4518A-256A-BF4C-BC03-8C8163D4D0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3279B96-77F8-4B94-942F-C3B2DDFCA725}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{CE339612-234D-ED44-828A-0ACF6649E53F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE339612-234D-ED44-828A-0ACF6649E53F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Administración</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>Total uniandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Hombres</t>
@@ -547,76 +544,76 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>48</v>
-      </c>
       <c r="K2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -651,7 +648,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -686,7 +683,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -721,13 +718,16 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -737,8 +737,23 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +788,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -808,7 +823,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -827,6 +842,9 @@
       <c r="F9" s="1">
         <v>0.75</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
       <c r="H9">
         <v>1</v>
       </c>
@@ -840,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -875,7 +893,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -910,7 +928,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -945,7 +963,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -980,7 +998,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1015,7 +1033,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1050,7 +1068,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1085,7 +1103,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1120,7 +1138,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1155,7 +1173,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1190,7 +1208,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1209,8 +1227,23 @@
       <c r="F20" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1245,7 +1278,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1280,7 +1313,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1302,11 +1335,20 @@
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1328,6 +1370,9 @@
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
       <c r="I24">
         <v>1</v>
       </c>
@@ -1338,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1357,8 +1402,23 @@
       <c r="F25" s="1">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1393,7 +1453,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1428,7 +1488,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1450,6 +1510,9 @@
       <c r="G28">
         <v>2</v>
       </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
       <c r="I28">
         <v>2</v>
       </c>
@@ -1460,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1495,7 +1558,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1530,7 +1593,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1565,7 +1628,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1600,7 +1663,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1619,8 +1682,23 @@
       <c r="F33" s="1">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1655,7 +1733,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1690,7 +1768,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1725,7 +1803,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1747,6 +1825,9 @@
       <c r="G37">
         <v>2</v>
       </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
       <c r="I37">
         <v>2</v>
       </c>
@@ -1757,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1792,13 +1873,16 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
       <c r="B39">
         <v>14</v>
       </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
       <c r="D39">
         <v>14</v>
       </c>
@@ -1811,6 +1895,9 @@
       <c r="G39">
         <v>6</v>
       </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
       <c r="I39">
         <v>6</v>
       </c>
@@ -1821,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1856,7 +1943,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1891,7 +1978,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2006,14 @@
       <c r="I42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -1955,7 +2048,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -1990,7 +2083,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -2009,11 +2102,29 @@
       <c r="F45" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>39</v>
       </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
       <c r="C46">
         <v>1</v>
       </c>
@@ -2035,8 +2146,14 @@
       <c r="I46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -2061,8 +2178,8 @@
       <c r="H47">
         <v>416</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>41</v>
+      <c r="I47" s="2">
+        <v>0</v>
       </c>
       <c r="J47" s="1">
         <v>0.61</v>
